--- a/story creation/lesson materials & notes/wk 11/DM1374_GameStoryCreation_PersonalityScore.xlsx
+++ b/story creation/lesson materials & notes/wk 11/DM1374_GameStoryCreation_PersonalityScore.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302EEC85-E136-4BE7-ACA8-160FC0B8629E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C044865-1BD8-4FFC-AF2F-95436D86AE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1035" windowWidth="19230" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalityScore" sheetId="2" r:id="rId1"/>
+    <sheet name="character A" sheetId="3" r:id="rId2"/>
+    <sheet name="character B" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="166">
   <si>
     <t>STRENGTHS</t>
   </si>
@@ -641,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -673,11 +675,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -706,9 +739,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -746,9 +779,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,26 +814,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,26 +849,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1028,25 +1027,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="14" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="14.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1058,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1078,7 +1077,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <f>SUM(B3:B22)</f>
         <v>0</v>
@@ -1840,8 +1839,8 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>165</v>
       </c>
@@ -1854,7 +1853,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="7" t="s">
         <v>1</v>
@@ -1873,7 +1872,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>8</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>9</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>10</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>11</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>12</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>13</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>14</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>15</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>16</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>17</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>18</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>19</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>20</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <f>SUM(B27:B46)</f>
         <v>0</v>
@@ -2636,6 +2635,7 @@
       <c r="I47" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <mergeCells count="18">
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
@@ -2657,6 +2657,3526 @@
     <mergeCell ref="D26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:I23">
+    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:I47">
+    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3919C-72EE-491F-B64C-2EC30BFB395A}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="14.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Animated?s=t",K3)</f>
+        <v>Animated</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Adventurous?s=t",L3)</f>
+        <v>Adventurous</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Analytical?s=t",M3)</f>
+        <v>Analytical</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Adaptable?s=t",N3)</f>
+        <v>Adaptable</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Playful?s=t",K4)</f>
+        <v>Playful</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Persuasive?s=t",L4)</f>
+        <v>Persuasive</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Persistent?s=t",M4)</f>
+        <v>Persistent</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Peaceful?s=t",N4)</f>
+        <v>Peaceful</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sociable?s=t",K5)</f>
+        <v>Sociable</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Strong-willed?s=t",L5)</f>
+        <v>Strong-willed</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Self-sacrificing?s=t",M5)</f>
+        <v>Self-sacrificing</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Submissive?s=t",N5)</f>
+        <v>Submissive</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Convincing?s=t",K6)</f>
+        <v>Convincing</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Competitive?s=t",L6)</f>
+        <v>Competitive</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Considerate?s=t",M6)</f>
+        <v>Considerate</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Controlled?s=t",N6)</f>
+        <v>Controlled</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Refreshing?s=t",K7)</f>
+        <v>Refreshing</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resourceful?s=t",L7)</f>
+        <v>Resourceful</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Respectful?s=t",M7)</f>
+        <v>Respectful</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reserved?s=t",N7)</f>
+        <v>Reserved</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Spirited?s=t",K8)</f>
+        <v>Spirited</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Self-reliant?s=t",L8)</f>
+        <v>Self-reliant</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sensitive?s=t",M8)</f>
+        <v>Sensitive</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Satisfied?s=t",N8)</f>
+        <v>Satisfied</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Promoter?s=t",K9)</f>
+        <v>Promoter</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Positive?s=t",L9)</f>
+        <v>Positive</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Planner?s=t",M9)</f>
+        <v>Planner</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Patient?s=t",N9)</f>
+        <v>Patient</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Spontaneous?s=t",K10)</f>
+        <v>Spontaneous</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sure?s=t",L10)</f>
+        <v>Sure</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Scheduled?s=t",M10)</f>
+        <v>Scheduled</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Shy?s=t",N10)</f>
+        <v>Shy</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Optimistic?s=t",K11)</f>
+        <v>Optimistic</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Outspoken?s=t",L11)</f>
+        <v>Outspoken</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Orderly?s=t",M11)</f>
+        <v>Orderly</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Obliging?s=t",N11)</f>
+        <v>Obliging</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Funny?s=t",K12)</f>
+        <v>Funny</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Forceful?s=t",L12)</f>
+        <v>Forceful</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Faithful?s=t",M12)</f>
+        <v>Faithful</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Friendly?s=t",N12)</f>
+        <v>Friendly</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Delightful?s=t",K13)</f>
+        <v>Delightful</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Daring?s=t",L13)</f>
+        <v>Daring</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Detailed?s=t",M13)</f>
+        <v>Detailed</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Diplomatic?s=t",N13)</f>
+        <v>Diplomatic</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cheerful?s=t",K14)</f>
+        <v>Cheerful</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Confident?s=t",L14)</f>
+        <v>Confident</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cultured?s=t",M14)</f>
+        <v>Cultured</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Consistent?s=t",N14)</f>
+        <v>Consistent</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inspiring?s=t",K15)</f>
+        <v>Inspiring</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Independent?s=t",L15)</f>
+        <v>Independent</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Idealistic?s=t",M15)</f>
+        <v>Idealistic</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inoffensive?s=t",N15)</f>
+        <v>Inoffensive</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Demonstrative?s=t",K16)</f>
+        <v>Demonstrative</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Decisive?s=t",L16)</f>
+        <v>Decisive</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Deep?s=t",M16)</f>
+        <v>Deep</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Dry humor?s=t",N16)</f>
+        <v>Dry humor</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mixes easily?s=t",K17)</f>
+        <v>Mixes easily</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mover?s=t",L17)</f>
+        <v>Mover</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Musical?s=t",M17)</f>
+        <v>Musical</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mediator?s=t",N17)</f>
+        <v>Mediator</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Talker?s=t",K18)</f>
+        <v>Talker</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tenacious?s=t",L18)</f>
+        <v>Tenacious</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Thoughtful?s=t",M18)</f>
+        <v>Thoughtful</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tolerant?s=t",N18)</f>
+        <v>Tolerant</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lively?s=t",K19)</f>
+        <v>Lively</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Leader?s=t",L19)</f>
+        <v>Leader</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loyal?s=t",M19)</f>
+        <v>Loyal</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Listener?s=t",N19)</f>
+        <v>Listener</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cute?s=t",K20)</f>
+        <v>Cute</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Chief?s=t",L20)</f>
+        <v>Chief</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Chartmaker?s=t",M20)</f>
+        <v>Chartmaker</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Contented?s=t",N20)</f>
+        <v>Contented</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Popular?s=t",K21)</f>
+        <v>Popular</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Productive?s=t",L21)</f>
+        <v>Productive</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Perfectionist?s=t",M21)</f>
+        <v>Perfectionist</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Pleasant?s=t",N21)</f>
+        <v>Pleasant</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bouncy?s=t",K22)</f>
+        <v>Bouncy</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bold?s=t",L22)</f>
+        <v>Bold</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Behaved?s=t",M22)</f>
+        <v>Behaved</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Balanced?s=t",N22)</f>
+        <v>Balanced</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <f>SUM(B3:B22)</f>
+        <v>8</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <f>SUM(D3:D22)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8">
+        <f>SUM(F3:F22)</f>
+        <v>7</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8">
+        <f>SUM(H3:H22)</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Brassy?s=t",K28)</f>
+        <v>Brassy</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bossy?s=t",L28)</f>
+        <v>Bossy</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bashful?s=t",M28)</f>
+        <v>Bashful</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Blank?s=t",N28)</f>
+        <v>Blank</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Undisciplined?s=t",K29)</f>
+        <v>Undisciplined</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unsympathetic?s=t",L29)</f>
+        <v>Unsympathetic</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unforgiving?s=t",M29)</f>
+        <v>Unforgiving</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unenthusiastic?s=t",N29)</f>
+        <v>Unenthusiastic</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Repetitious?s=t",K30)</f>
+        <v>Repetitious</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resistant?s=t",L30)</f>
+        <v>Resistant</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resentful?s=t",M30)</f>
+        <v>Resentful</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reticent?s=t",N30)</f>
+        <v>Reticent</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Forgetful?s=t",K31)</f>
+        <v>Forgetful</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Frank?s=t",L31)</f>
+        <v>Frank</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Fussy?s=t",M31)</f>
+        <v>Fussy</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Fearful?s=t",N31)</f>
+        <v>Fearful</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Interrupts?s=t",K32)</f>
+        <v>Interrupts</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Impatient?s=t",L32)</f>
+        <v>Impatient</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Insecure?s=t",M32)</f>
+        <v>Insecure</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Indecisive?s=t",N32)</f>
+        <v>Indecisive</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unpredictable?s=t",K33)</f>
+        <v>Unpredictable</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unaffectionate?s=t",L33)</f>
+        <v>Unaffectionate</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unpopular?s=t",M33)</f>
+        <v>Unpopular</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Uninvolved?s=t",N33)</f>
+        <v>Uninvolved</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Haphazard?s=t",K34)</f>
+        <v>Haphazard</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Headstrong?s=t",L34)</f>
+        <v>Headstrong</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Hard to please?s=t",M34)</f>
+        <v>Hard to please</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Hesitant?s=t",N34)</f>
+        <v>Hesitant</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Permissive?s=t",K35)</f>
+        <v>Permissive</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Proud?s=t",L35)</f>
+        <v>Proud</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Pessimistic?s=t",M35)</f>
+        <v>Pessimistic</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Plain?s=t",N35)</f>
+        <v>Plain</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Angered easily?s=t",K36)</f>
+        <v>Angered easily</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Argumentative?s=t",L36)</f>
+        <v>Argumentative</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Alienated?s=t",M36)</f>
+        <v>Alienated</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Aimless?s=t",N36)</f>
+        <v>Aimless</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Naïve?s=t",K37)</f>
+        <v>Naïve</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Nervy?s=t",L37)</f>
+        <v>Nervy</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Negative attitude?s=t",M37)</f>
+        <v>Negative attitude</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Nonchalant?s=t",N37)</f>
+        <v>Nonchalant</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Wants credit?s=t",K38)</f>
+        <v>Wants credit</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Workaholic?s=t",L38)</f>
+        <v>Workaholic</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Withdrawn?s=t",M38)</f>
+        <v>Withdrawn</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Worrier?s=t",N38)</f>
+        <v>Worrier</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Talkative?s=t",K39)</f>
+        <v>Talkative</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tactless?s=t",L39)</f>
+        <v>Tactless</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Too sensitive?s=t",M39)</f>
+        <v>Too sensitive</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Timid?s=t",N39)</f>
+        <v>Timid</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Disorganized?s=t",K40)</f>
+        <v>Disorganized</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Domineering?s=t",L40)</f>
+        <v>Domineering</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Depressed?s=t",M40)</f>
+        <v>Depressed</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Doubtful?s=t",N40)</f>
+        <v>Doubtful</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>14</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inconsistent?s=t",K41)</f>
+        <v>Inconsistent</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Intolerant?s=t",L41)</f>
+        <v>Intolerant</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Introvert?s=t",M41)</f>
+        <v>Introvert</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Indifferent?s=t",N41)</f>
+        <v>Indifferent</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>15</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Messy?s=t",K42)</f>
+        <v>Messy</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Manipulative?s=t",L42)</f>
+        <v>Manipulative</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Moody?s=t",M42)</f>
+        <v>Moody</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mumbles?s=t",N42)</f>
+        <v>Mumbles</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Show-off?s=t",K43)</f>
+        <v>Show-off</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Stubborn?s=t",L43)</f>
+        <v>Stubborn</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Skeptical?s=t",M43)</f>
+        <v>Skeptical</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Slow?s=t",N43)</f>
+        <v>Slow</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>17</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loud?s=t",K44)</f>
+        <v>Loud</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lord over others?s=t",L44)</f>
+        <v>Lord over others</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loner?s=t",M44)</f>
+        <v>Loner</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lazy?s=t",N44)</f>
+        <v>Lazy</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Scatterbrained?s=t",K45)</f>
+        <v>Scatterbrained</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Short-tempered?s=t",L45)</f>
+        <v>Short-tempered</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Suspicious?s=t",M45)</f>
+        <v>Suspicious</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sluggish?s=t",N45)</f>
+        <v>Sluggish</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>19</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Restless?s=t",K46)</f>
+        <v>Restless</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Rash?s=t",L46)</f>
+        <v>Rash</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Revengeful?s=t",M46)</f>
+        <v>Revengeful</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reluctant?s=t",N46)</f>
+        <v>Reluctant</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Changeable?s=t",K47)</f>
+        <v>Changeable</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Crafty?s=t",L47)</f>
+        <v>Crafty</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Critical?s=t",M47)</f>
+        <v>Critical</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Compromising?s=t",N47)</f>
+        <v>Compromising</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="8">
+        <f>SUM(B28:B47)</f>
+        <v>7</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8">
+        <f>SUM(D28:D47)</f>
+        <v>7</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8">
+        <f>SUM(F28:F47)</f>
+        <v>4</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="8">
+        <f>SUM(H28:H47)</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <mergeCells count="26">
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B23:I23">
+    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:I48">
+    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC4E8B0-8E2E-4104-87AE-F156C3571960}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="14.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Animated?s=t",K3)</f>
+        <v>Animated</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Adventurous?s=t",L3)</f>
+        <v>Adventurous</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Analytical?s=t",M3)</f>
+        <v>Analytical</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Adaptable?s=t",N3)</f>
+        <v>Adaptable</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Playful?s=t",K4)</f>
+        <v>Playful</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Persuasive?s=t",L4)</f>
+        <v>Persuasive</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Persistent?s=t",M4)</f>
+        <v>Persistent</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Peaceful?s=t",N4)</f>
+        <v>Peaceful</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sociable?s=t",K5)</f>
+        <v>Sociable</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Strong-willed?s=t",L5)</f>
+        <v>Strong-willed</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Self-sacrificing?s=t",M5)</f>
+        <v>Self-sacrificing</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Submissive?s=t",N5)</f>
+        <v>Submissive</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Convincing?s=t",K6)</f>
+        <v>Convincing</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Competitive?s=t",L6)</f>
+        <v>Competitive</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Considerate?s=t",M6)</f>
+        <v>Considerate</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Controlled?s=t",N6)</f>
+        <v>Controlled</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Refreshing?s=t",K7)</f>
+        <v>Refreshing</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resourceful?s=t",L7)</f>
+        <v>Resourceful</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Respectful?s=t",M7)</f>
+        <v>Respectful</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reserved?s=t",N7)</f>
+        <v>Reserved</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Spirited?s=t",K8)</f>
+        <v>Spirited</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Self-reliant?s=t",L8)</f>
+        <v>Self-reliant</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sensitive?s=t",M8)</f>
+        <v>Sensitive</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Satisfied?s=t",N8)</f>
+        <v>Satisfied</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Promoter?s=t",K9)</f>
+        <v>Promoter</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Positive?s=t",L9)</f>
+        <v>Positive</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Planner?s=t",M9)</f>
+        <v>Planner</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Patient?s=t",N9)</f>
+        <v>Patient</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Spontaneous?s=t",K10)</f>
+        <v>Spontaneous</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sure?s=t",L10)</f>
+        <v>Sure</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Scheduled?s=t",M10)</f>
+        <v>Scheduled</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Shy?s=t",N10)</f>
+        <v>Shy</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Optimistic?s=t",K11)</f>
+        <v>Optimistic</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Outspoken?s=t",L11)</f>
+        <v>Outspoken</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Orderly?s=t",M11)</f>
+        <v>Orderly</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Obliging?s=t",N11)</f>
+        <v>Obliging</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Funny?s=t",K12)</f>
+        <v>Funny</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Forceful?s=t",L12)</f>
+        <v>Forceful</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Faithful?s=t",M12)</f>
+        <v>Faithful</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Friendly?s=t",N12)</f>
+        <v>Friendly</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Delightful?s=t",K13)</f>
+        <v>Delightful</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Daring?s=t",L13)</f>
+        <v>Daring</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Detailed?s=t",M13)</f>
+        <v>Detailed</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Diplomatic?s=t",N13)</f>
+        <v>Diplomatic</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cheerful?s=t",K14)</f>
+        <v>Cheerful</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Confident?s=t",L14)</f>
+        <v>Confident</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cultured?s=t",M14)</f>
+        <v>Cultured</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Consistent?s=t",N14)</f>
+        <v>Consistent</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inspiring?s=t",K15)</f>
+        <v>Inspiring</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Independent?s=t",L15)</f>
+        <v>Independent</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Idealistic?s=t",M15)</f>
+        <v>Idealistic</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inoffensive?s=t",N15)</f>
+        <v>Inoffensive</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Demonstrative?s=t",K16)</f>
+        <v>Demonstrative</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Decisive?s=t",L16)</f>
+        <v>Decisive</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Deep?s=t",M16)</f>
+        <v>Deep</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Dry humor?s=t",N16)</f>
+        <v>Dry humor</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mixes easily?s=t",K17)</f>
+        <v>Mixes easily</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mover?s=t",L17)</f>
+        <v>Mover</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Musical?s=t",M17)</f>
+        <v>Musical</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mediator?s=t",N17)</f>
+        <v>Mediator</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Talker?s=t",K18)</f>
+        <v>Talker</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tenacious?s=t",L18)</f>
+        <v>Tenacious</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Thoughtful?s=t",M18)</f>
+        <v>Thoughtful</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tolerant?s=t",N18)</f>
+        <v>Tolerant</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lively?s=t",K19)</f>
+        <v>Lively</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Leader?s=t",L19)</f>
+        <v>Leader</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loyal?s=t",M19)</f>
+        <v>Loyal</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Listener?s=t",N19)</f>
+        <v>Listener</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Cute?s=t",K20)</f>
+        <v>Cute</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Chief?s=t",L20)</f>
+        <v>Chief</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Chartmaker?s=t",M20)</f>
+        <v>Chartmaker</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Contented?s=t",N20)</f>
+        <v>Contented</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Popular?s=t",K21)</f>
+        <v>Popular</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Productive?s=t",L21)</f>
+        <v>Productive</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Perfectionist?s=t",M21)</f>
+        <v>Perfectionist</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Pleasant?s=t",N21)</f>
+        <v>Pleasant</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bouncy?s=t",K22)</f>
+        <v>Bouncy</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bold?s=t",L22)</f>
+        <v>Bold</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Behaved?s=t",M22)</f>
+        <v>Behaved</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Balanced?s=t",N22)</f>
+        <v>Balanced</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <f>SUM(B3:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <f>SUM(D3:D22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8">
+        <f>SUM(F3:F22)</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8">
+        <f>SUM(H3:H22)</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Brassy?s=t",K27)</f>
+        <v>Brassy</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bossy?s=t",L27)</f>
+        <v>Bossy</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Bashful?s=t",M27)</f>
+        <v>Bashful</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Blank?s=t",N27)</f>
+        <v>Blank</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Undisciplined?s=t",K28)</f>
+        <v>Undisciplined</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unsympathetic?s=t",L28)</f>
+        <v>Unsympathetic</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unforgiving?s=t",M28)</f>
+        <v>Unforgiving</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unenthusiastic?s=t",N28)</f>
+        <v>Unenthusiastic</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Repetitious?s=t",K29)</f>
+        <v>Repetitious</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resistant?s=t",L29)</f>
+        <v>Resistant</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Resentful?s=t",M29)</f>
+        <v>Resentful</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reticent?s=t",N29)</f>
+        <v>Reticent</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Forgetful?s=t",K30)</f>
+        <v>Forgetful</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Frank?s=t",L30)</f>
+        <v>Frank</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Fussy?s=t",M30)</f>
+        <v>Fussy</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Fearful?s=t",N30)</f>
+        <v>Fearful</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Interrupts?s=t",K31)</f>
+        <v>Interrupts</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Impatient?s=t",L31)</f>
+        <v>Impatient</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Insecure?s=t",M31)</f>
+        <v>Insecure</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Indecisive?s=t",N31)</f>
+        <v>Indecisive</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unpredictable?s=t",K32)</f>
+        <v>Unpredictable</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unaffectionate?s=t",L32)</f>
+        <v>Unaffectionate</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Unpopular?s=t",M32)</f>
+        <v>Unpopular</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Uninvolved?s=t",N32)</f>
+        <v>Uninvolved</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Haphazard?s=t",K33)</f>
+        <v>Haphazard</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Headstrong?s=t",L33)</f>
+        <v>Headstrong</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Hard to please?s=t",M33)</f>
+        <v>Hard to please</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Hesitant?s=t",N33)</f>
+        <v>Hesitant</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Permissive?s=t",K34)</f>
+        <v>Permissive</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Proud?s=t",L34)</f>
+        <v>Proud</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Pessimistic?s=t",M34)</f>
+        <v>Pessimistic</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Plain?s=t",N34)</f>
+        <v>Plain</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Angered easily?s=t",K35)</f>
+        <v>Angered easily</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Argumentative?s=t",L35)</f>
+        <v>Argumentative</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Alienated?s=t",M35)</f>
+        <v>Alienated</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Aimless?s=t",N35)</f>
+        <v>Aimless</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Naïve?s=t",K36)</f>
+        <v>Naïve</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Nervy?s=t",L36)</f>
+        <v>Nervy</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Negative attitude?s=t",M36)</f>
+        <v>Negative attitude</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Nonchalant?s=t",N36)</f>
+        <v>Nonchalant</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Wants credit?s=t",K37)</f>
+        <v>Wants credit</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Workaholic?s=t",L37)</f>
+        <v>Workaholic</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Withdrawn?s=t",M37)</f>
+        <v>Withdrawn</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Worrier?s=t",N37)</f>
+        <v>Worrier</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Talkative?s=t",K38)</f>
+        <v>Talkative</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Tactless?s=t",L38)</f>
+        <v>Tactless</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Too sensitive?s=t",M38)</f>
+        <v>Too sensitive</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Timid?s=t",N38)</f>
+        <v>Timid</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Disorganized?s=t",K39)</f>
+        <v>Disorganized</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Domineering?s=t",L39)</f>
+        <v>Domineering</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Depressed?s=t",M39)</f>
+        <v>Depressed</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Doubtful?s=t",N39)</f>
+        <v>Doubtful</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Inconsistent?s=t",K40)</f>
+        <v>Inconsistent</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Intolerant?s=t",L40)</f>
+        <v>Intolerant</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Introvert?s=t",M40)</f>
+        <v>Introvert</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Indifferent?s=t",N40)</f>
+        <v>Indifferent</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Messy?s=t",K41)</f>
+        <v>Messy</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Manipulative?s=t",L41)</f>
+        <v>Manipulative</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Moody?s=t",M41)</f>
+        <v>Moody</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Mumbles?s=t",N41)</f>
+        <v>Mumbles</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>16</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Show-off?s=t",K42)</f>
+        <v>Show-off</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Stubborn?s=t",L42)</f>
+        <v>Stubborn</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Skeptical?s=t",M42)</f>
+        <v>Skeptical</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Slow?s=t",N42)</f>
+        <v>Slow</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>17</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loud?s=t",K43)</f>
+        <v>Loud</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lord over others?s=t",L43)</f>
+        <v>Lord over others</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Loner?s=t",M43)</f>
+        <v>Loner</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Lazy?s=t",N43)</f>
+        <v>Lazy</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>18</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Scatterbrained?s=t",K44)</f>
+        <v>Scatterbrained</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Short-tempered?s=t",L44)</f>
+        <v>Short-tempered</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Suspicious?s=t",M44)</f>
+        <v>Suspicious</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Sluggish?s=t",N44)</f>
+        <v>Sluggish</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>19</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Restless?s=t",K45)</f>
+        <v>Restless</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Rash?s=t",L45)</f>
+        <v>Rash</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Revengeful?s=t",M45)</f>
+        <v>Revengeful</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="3" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Reluctant?s=t",N45)</f>
+        <v>Reluctant</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Changeable?s=t",K46)</f>
+        <v>Changeable</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Crafty?s=t",L46)</f>
+        <v>Crafty</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Critical?s=t",M46)</f>
+        <v>Critical</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f>HYPERLINK("http://www.dictionary.com/browse/Compromising?s=t",N46)</f>
+        <v>Compromising</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="8">
+        <f>SUM(B27:B46)</f>
+        <v>7</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8">
+        <f>SUM(D27:D46)</f>
+        <v>6</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8">
+        <f>SUM(F27:F46)</f>
+        <v>13</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="8">
+        <f>SUM(H27:H46)</f>
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <mergeCells count="18">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B23:I23">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:I47">
